--- a/public/excel/test.xlsx
+++ b/public/excel/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\PhpstormProjects\SmagenAfOl\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD0CB8C9-BC95-4A0D-BA20-EF3B6C4EE3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEE34BA-B082-484D-A49E-0D9B5FBBF6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-10560" windowWidth="16440" windowHeight="28440" xr2:uid="{FF801C82-C85B-4F8B-B9B9-9E60977209A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF801C82-C85B-4F8B-B9B9-9E60977209A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -51,9 +51,6 @@
     <t>alc_percent</t>
   </si>
   <si>
-    <t>IBU</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -70,6 +67,21 @@
   </si>
   <si>
     <t>Stone Brewing</t>
+  </si>
+  <si>
+    <t>ibu</t>
+  </si>
+  <si>
+    <t>beer_of_the_day</t>
+  </si>
+  <si>
+    <t>tina</t>
+  </si>
+  <si>
+    <t>en stout</t>
+  </si>
+  <si>
+    <t>Stout</t>
   </si>
 </sst>
 </file>
@@ -470,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C0633C-4057-4AF5-9720-F3BEEDEEB596}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,9 +495,10 @@
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,27 +515,30 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>6.9</v>
@@ -532,6 +548,35 @@
       </c>
       <c r="G2">
         <v>330</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
